--- a/biology/Botanique/Angélique_de_Lyall/Angélique_de_Lyall.xlsx
+++ b/biology/Botanique/Angélique_de_Lyall/Angélique_de_Lyall.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ang%C3%A9lique_de_Lyall</t>
+          <t>Angélique_de_Lyall</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Angelica arguta
 L'Angélique de Lyall (Angelica arguta) est une espèce de plante herbacée vivace de la famille des Apiaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ang%C3%A9lique_de_Lyall</t>
+          <t>Angélique_de_Lyall</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est originaire de l'ouest de l'Amérique du Nord où elle est présente de l'Alaska jusqu'en Floride aux États-Unis en passant par la Colombie-Britannique et l'Alberta au Canada. Elle apprécie les zones recouvertes de forêts de conifères.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ang%C3%A9lique_de_Lyall</t>
+          <t>Angélique_de_Lyall</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une plante vivace à racine pivotante qui se caractérise par une tige d'une taille de un à deux mètres. Elle a des feuilles pointues et dentées d'une longueur de 9 cm. Le sommet de la tige est garni de fleurs généralement jaunâtres disposées en ombelle composée dont le diamètre atteint 10 cm.
 </t>
